--- a/Письма от заказчика/Ведомость проверки результатов РД АСУ ТП (50164358 v1).xlsx
+++ b/Письма от заказчика/Ведомость проверки результатов РД АСУ ТП (50164358 v1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin.DESKTOP-JV0Q39O\Documents\GitHub\380-25_Ivanovo_TEC\Письма от заказчика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Письма от заказчика\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AAD89-45F4-4239-8290-243964C429AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ОТР-ПД-РД" sheetId="1" r:id="rId1"/>
@@ -121,27 +122,37 @@
     <definedName name="Статус1">'ОТР-ПД-РД'!$B$48:$C$50</definedName>
     <definedName name="Статус2">'ОТР-ПД-РД'!$B$53:$C$54</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Батуева Дарья Александровна - Личное представление" guid="{DF12CA7C-123E-41ED-B931-BC6890EAA76F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Брусничкин Александр Алексеевич - Личное представление" guid="{5393EB08-2805-4484-A848-F33FF939C496}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Мустафаева Ксения Александровна - Личное представление" guid="{603E59C3-0FC3-4A3F-B5D1-BCA0F806BD87}" mergeInterval="0" personalView="1" maximized="1" xWindow="9584" yWindow="-16" windowWidth="4832" windowHeight="2632" activeSheetId="5"/>
+    <customWorkbookView name="Чернышев Иван Александрович - Личное представление" guid="{26230550-FA05-4B27-A0C0-6D33BCFEA9B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-16" yWindow="-16" windowWidth="3872" windowHeight="2092" activeSheetId="4"/>
+    <customWorkbookView name="Алмакаева Анна Анатольевна - Личное представление" guid="{74164DD8-8A89-44C9-B878-FAEF59642254}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Щелокова Ирина Геннадиевна - Личное представление" guid="{C7C38171-0C49-4819-A665-B56693D0589B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="57" windowWidth="1296" windowHeight="1000" activeSheetId="1"/>
     <customWorkbookView name="Неганов Евгений Валерьевич - Личное представление" guid="{A875A593-D02B-4CD3-B0F4-C0344599AF32}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="2582" windowHeight="1402" activeSheetId="1"/>
-    <customWorkbookView name="Щелокова Ирина Геннадиевна - Личное представление" guid="{C7C38171-0C49-4819-A665-B56693D0589B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="57" windowWidth="1296" windowHeight="1000" activeSheetId="1"/>
-    <customWorkbookView name="Алмакаева Анна Анатольевна - Личное представление" guid="{74164DD8-8A89-44C9-B878-FAEF59642254}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Чернышев Иван Александрович - Личное представление" guid="{26230550-FA05-4B27-A0C0-6D33BCFEA9B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-16" yWindow="-16" windowWidth="3872" windowHeight="2092" activeSheetId="4"/>
-    <customWorkbookView name="Мустафаева Ксения Александровна - Личное представление" guid="{603E59C3-0FC3-4A3F-B5D1-BCA0F806BD87}" mergeInterval="0" personalView="1" maximized="1" xWindow="9584" yWindow="-16" windowWidth="4832" windowHeight="2632" activeSheetId="5"/>
-    <customWorkbookView name="Брусничкин Александр Алексеевич - Личное представление" guid="{5393EB08-2805-4484-A848-F33FF939C496}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Батуева Дарья Александровна - Личное представление" guid="{DF12CA7C-123E-41ED-B931-BC6890EAA76F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="133">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -679,11 +690,32 @@
   <si>
     <t>Добавлено в структурную схему цифрового обмена, 878.2023-АСУ ТП.Г1</t>
   </si>
+  <si>
+    <t>Добавлен в раздел Видеограммы представления информации операторау, 878.2023-АСУ ТП.АВ</t>
+  </si>
+  <si>
+    <t>Отправлено 15.09.25</t>
+  </si>
+  <si>
+    <t>Отправлено 17.09.25</t>
+  </si>
+  <si>
+    <t>Отправлено 16.09.25</t>
+  </si>
+  <si>
+    <t>Отправлено 18.09.25</t>
+  </si>
+  <si>
+    <t>Разработан раздел Журнал шинных и системных кабелей, 878.2023-АСУ ТП.С8</t>
+  </si>
+  <si>
+    <t>Разработан раздел Описание системы единого времени, 878.2023-АСУ ТП.СЕВ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -995,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1252,21 +1284,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1291,23 +1308,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1336,18 +1353,53 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1461,20 +1513,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1609,20 +1647,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B48:B52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B48:B52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="B48:B52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B48:B52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Столбец1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Столбец1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица36" displayName="Таблица36" ref="B21:B25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="B21:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица36" displayName="Таблица36" ref="B21:B25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="B21:B25" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Столбец1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Столбец1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1924,14 +1962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1991,13 +2029,13 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2019,13 +2057,13 @@
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:256" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -2047,12 +2085,12 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:256" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="48"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
@@ -2075,12 +2113,12 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:256" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="48"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -2157,44 +2195,44 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:256" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="90" t="s">
+      <c r="H8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="90" t="s">
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="88" t="s">
+      <c r="M8" s="93"/>
+      <c r="N8" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="88"/>
-      <c r="P8" s="95" t="s">
+      <c r="O8" s="96"/>
+      <c r="P8" s="90" t="s">
         <v>46</v>
       </c>
       <c r="Q8" s="34" t="s">
@@ -2219,14 +2257,14 @@
       </c>
     </row>
     <row r="9" spans="1:256" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="25" t="s">
         <v>29</v>
       </c>
@@ -2248,7 +2286,7 @@
       <c r="O9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="96"/>
+      <c r="P9" s="91"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35" t="s">
         <v>6</v>
@@ -2269,29 +2307,29 @@
       </c>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="86" t="s">
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87" t="s">
+      <c r="M10" s="94"/>
+      <c r="N10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="87"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="47" t="s">
         <v>17</v>
       </c>
@@ -5617,7 +5655,9 @@
       <c r="H23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" s="44"/>
       <c r="K23" s="43" t="s">
         <v>120</v>
@@ -5891,7 +5931,9 @@
       <c r="H24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J24" s="44"/>
       <c r="K24" s="43" t="s">
         <v>120</v>
@@ -6167,7 +6209,9 @@
       <c r="H25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J25" s="44"/>
       <c r="K25" s="43" t="s">
         <v>120</v>
@@ -6441,7 +6485,9 @@
       <c r="H26" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="J26" s="44"/>
       <c r="K26" s="43" t="s">
         <v>120</v>
@@ -6714,7 +6760,9 @@
       <c r="I27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="44"/>
+      <c r="J27" s="44" t="s">
+        <v>127</v>
+      </c>
       <c r="K27" s="43" t="s">
         <v>120</v>
       </c>
@@ -6986,7 +7034,9 @@
       <c r="I28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="44"/>
+      <c r="J28" s="115" t="s">
+        <v>132</v>
+      </c>
       <c r="K28" s="43" t="s">
         <v>120</v>
       </c>
@@ -7258,7 +7308,7 @@
       <c r="I29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="44"/>
+      <c r="J29" s="116"/>
       <c r="K29" s="43" t="s">
         <v>120</v>
       </c>
@@ -7530,7 +7580,9 @@
       <c r="I30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="44"/>
+      <c r="J30" s="44" t="s">
+        <v>127</v>
+      </c>
       <c r="K30" s="43" t="s">
         <v>120</v>
       </c>
@@ -7802,7 +7854,9 @@
       <c r="I31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="44"/>
+      <c r="J31" s="44" t="s">
+        <v>130</v>
+      </c>
       <c r="K31" s="43" t="s">
         <v>120</v>
       </c>
@@ -8074,7 +8128,9 @@
       <c r="I32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="44"/>
+      <c r="J32" s="44" t="s">
+        <v>131</v>
+      </c>
       <c r="K32" s="43" t="s">
         <v>120</v>
       </c>
@@ -8346,7 +8402,9 @@
       <c r="I33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="44"/>
+      <c r="J33" s="44" t="s">
+        <v>129</v>
+      </c>
       <c r="K33" s="43" t="s">
         <v>120</v>
       </c>
@@ -8618,7 +8676,9 @@
       <c r="I34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="44"/>
+      <c r="J34" s="44" t="s">
+        <v>126</v>
+      </c>
       <c r="K34" s="43" t="s">
         <v>120</v>
       </c>
@@ -8890,7 +8950,9 @@
       <c r="I35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="44"/>
+      <c r="J35" s="115" t="s">
+        <v>128</v>
+      </c>
       <c r="K35" s="43" t="s">
         <v>120</v>
       </c>
@@ -9162,7 +9224,7 @@
       <c r="I36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="44"/>
+      <c r="J36" s="116"/>
       <c r="K36" s="43" t="s">
         <v>120</v>
       </c>
@@ -9434,7 +9496,9 @@
       <c r="I37" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="44"/>
+      <c r="J37" s="44" t="s">
+        <v>127</v>
+      </c>
       <c r="K37" s="43" t="s">
         <v>120</v>
       </c>
@@ -9685,29 +9749,29 @@
       <c r="IV37" s="40"/>
     </row>
     <row r="38" spans="1:256" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="87" t="s">
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="86" t="s">
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="86"/>
-      <c r="N38" s="87" t="s">
+      <c r="M38" s="94"/>
+      <c r="N38" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="O38" s="87"/>
+      <c r="O38" s="95"/>
       <c r="P38" s="47" t="s">
         <v>17</v>
       </c>
@@ -9976,7 +10040,7 @@
       <c r="I39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="91" t="s">
+      <c r="J39" s="86" t="s">
         <v>121</v>
       </c>
       <c r="K39" s="43" t="s">
@@ -10252,7 +10316,7 @@
       <c r="I40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="92"/>
+      <c r="J40" s="87"/>
       <c r="K40" s="43" t="s">
         <v>120</v>
       </c>
@@ -10526,7 +10590,7 @@
       <c r="I41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="93"/>
+      <c r="J41" s="88"/>
       <c r="K41" s="43" t="s">
         <v>120</v>
       </c>
@@ -11921,10 +11985,10 @@
       <c r="J47" s="10"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
-      <c r="M47" s="94" t="s">
+      <c r="M47" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="N47" s="94"/>
+      <c r="N47" s="89"/>
       <c r="O47" s="10"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -15067,45 +15131,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A875A593-D02B-4CD3-B0F4-C0344599AF32}" scale="55" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A8">
-      <selection activeCell="F21" sqref="F21"/>
+    <customSheetView guid="{DF12CA7C-123E-41ED-B931-BC6890EAA76F}" scale="70" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A44">
+      <selection activeCell="C63" sqref="C63:D63"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-      <autoFilter ref="B9:Y31"/>
+      <autoFilter ref="B9:Y51" xr:uid="{1DF1433F-9ECE-4BBA-813A-67D353D873D1}"/>
     </customSheetView>
-    <customSheetView guid="{C7C38171-0C49-4819-A665-B56693D0589B}" scale="60" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="C17">
-      <selection activeCell="K20" sqref="K20"/>
+    <customSheetView guid="{5393EB08-2805-4484-A848-F33FF939C496}" scale="55" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A2">
+      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-      <autoFilter ref="B9:Y31"/>
-    </customSheetView>
-    <customSheetView guid="{74164DD8-8A89-44C9-B878-FAEF59642254}" scale="60" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="C11">
-      <selection activeCell="K23" sqref="K23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId3"/>
-      <autoFilter ref="B9:Y31"/>
-    </customSheetView>
-    <customSheetView guid="{26230550-FA05-4B27-A0C0-6D33BCFEA9B6}" scale="55" showPageBreaks="1" fitToPage="1" printArea="1" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A233">
-      <selection activeCell="C238" sqref="C238:D238"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="landscape" r:id="rId4"/>
-      <autoFilter ref="B10:Z230">
-        <filterColumn colId="7">
-          <filters>
-            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_Производственое техническое управление_x000a_Отдел эксплуатации опасных производственных объектов"/>
-            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_УПБОТиЭ_x000a_ОПБиПК"/>
-            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_Управление автоматизации производства"/>
-            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_Управление производственно-технологической связи"/>
-            <filter val="ООО «НН Девелопмент»_x000a_Проектный офис реконструкции инфраструктурных объектов п. Тухард"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="B9:Y31" xr:uid="{F83DE9F3-49E1-4995-966E-412A61AAC0F3}"/>
     </customSheetView>
     <customSheetView guid="{603E59C3-0FC3-4A3F-B5D1-BCA0F806BD87}" scale="60" showPageBreaks="1" fitToPage="1" printArea="1" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" topLeftCell="K144">
       <selection activeCell="O76" sqref="O76"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="21" fitToHeight="0" orientation="landscape" r:id="rId5"/>
-      <autoFilter ref="B10:Z230">
+      <pageSetup paperSize="9" scale="21" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+      <autoFilter ref="B10:Z230" xr:uid="{6A38D106-4702-485A-92BC-F37979624B22}">
         <filterColumn colId="7">
           <filters>
             <filter val="ИГН, ГТЭП"/>
@@ -15121,20 +15163,54 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5393EB08-2805-4484-A848-F33FF939C496}" scale="55" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A2">
-      <selection activeCell="K12" sqref="K12"/>
+    <customSheetView guid="{26230550-FA05-4B27-A0C0-6D33BCFEA9B6}" scale="55" showPageBreaks="1" fitToPage="1" printArea="1" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A233">
+      <selection activeCell="C238" sqref="C238:D238"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <autoFilter ref="B10:Z230" xr:uid="{0974C8C6-80A8-42BE-BE39-DD94D135D30A}">
+        <filterColumn colId="7">
+          <filters>
+            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_Производственое техническое управление_x000a_Отдел эксплуатации опасных производственных объектов"/>
+            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_УПБОТиЭ_x000a_ОПБиПК"/>
+            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_Управление автоматизации производства"/>
+            <filter val="АО &quot;Норильсктрансгаз&quot;_x000a_Управление производственно-технологической связи"/>
+            <filter val="ООО «НН Девелопмент»_x000a_Проектный офис реконструкции инфраструктурных объектов п. Тухард"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{74164DD8-8A89-44C9-B878-FAEF59642254}" scale="60" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="C11">
+      <selection activeCell="K23" sqref="K23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+      <autoFilter ref="B9:Y31" xr:uid="{86697836-398F-47E2-AE21-30295B6F383B}"/>
+    </customSheetView>
+    <customSheetView guid="{C7C38171-0C49-4819-A665-B56693D0589B}" scale="60" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="C17">
+      <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId6"/>
-      <autoFilter ref="B9:Y31"/>
+      <autoFilter ref="B9:Y31" xr:uid="{0758D47F-A2C3-45F9-8290-C9382D8819B6}"/>
     </customSheetView>
-    <customSheetView guid="{DF12CA7C-123E-41ED-B931-BC6890EAA76F}" scale="70" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A44">
-      <selection activeCell="C63" sqref="C63:D63"/>
+    <customSheetView guid="{A875A593-D02B-4CD3-B0F4-C0344599AF32}" scale="55" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A8">
+      <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId7"/>
-      <autoFilter ref="B9:Y51"/>
+      <autoFilter ref="B9:Y31" xr:uid="{683400B9-EA62-41B1-8458-92FFACB91447}"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="J39:J41"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="P8:P9"/>
@@ -15151,26 +15227,16 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I39:I45 I12:I37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I39:I45 I12:I37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$49:$B$51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N39:N45 N12:N37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N39:N45 N12:N37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$53:$B$54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L45 L12:L37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L45 L12:L37" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$B$56:$B$58</formula1>
     </dataValidation>
   </dataValidations>
@@ -15186,7 +15252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15252,11 +15318,11 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -15279,12 +15345,12 @@
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:255" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -15306,11 +15372,11 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:255" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="48"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -15333,12 +15399,12 @@
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:255" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -15415,36 +15481,36 @@
       <c r="A8" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="90" t="s">
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="88" t="s">
+      <c r="L8" s="93"/>
+      <c r="M8" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="88"/>
-      <c r="O8" s="95" t="s">
+      <c r="N8" s="96"/>
+      <c r="O8" s="90" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="34" t="s">
@@ -15470,21 +15536,21 @@
     </row>
     <row r="9" spans="1:255" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="114"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="25" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="111"/>
+      <c r="J9" s="106"/>
       <c r="K9" s="19" t="s">
         <v>8</v>
       </c>
@@ -15497,7 +15563,7 @@
       <c r="N9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="96"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="35"/>
       <c r="Q9" s="35" t="s">
         <v>6</v>
@@ -15518,28 +15584,28 @@
       </c>
     </row>
     <row r="10" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="99" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="86" t="s">
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87" t="s">
+      <c r="L10" s="94"/>
+      <c r="M10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="47" t="s">
         <v>17</v>
       </c>
@@ -15563,8 +15629,8 @@
       <c r="F11" s="59"/>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
       <c r="K11" s="6"/>
       <c r="L11" s="16"/>
       <c r="M11" s="71"/>
@@ -15822,8 +15888,8 @@
       <c r="F12" s="59"/>
       <c r="G12" s="70"/>
       <c r="H12" s="70"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
       <c r="K12" s="6"/>
       <c r="L12" s="16"/>
       <c r="M12" s="71"/>
@@ -16081,8 +16147,8 @@
       <c r="F13" s="59"/>
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
       <c r="K13" s="6"/>
       <c r="L13" s="16"/>
       <c r="M13" s="71"/>
@@ -16340,8 +16406,8 @@
       <c r="F14" s="59"/>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="109"/>
       <c r="K14" s="6"/>
       <c r="L14" s="16"/>
       <c r="M14" s="71"/>
@@ -16599,8 +16665,8 @@
       <c r="F15" s="59"/>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
       <c r="K15" s="6"/>
       <c r="L15" s="16"/>
       <c r="M15" s="71"/>
@@ -16848,28 +16914,28 @@
       <c r="IU15" s="40"/>
     </row>
     <row r="16" spans="1:255" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="99" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="86" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87" t="s">
+      <c r="L16" s="94"/>
+      <c r="M16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="47" t="s">
         <v>17</v>
       </c>
@@ -17127,8 +17193,8 @@
       <c r="F17" s="59"/>
       <c r="G17" s="70"/>
       <c r="H17" s="70"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="109"/>
       <c r="K17" s="6"/>
       <c r="L17" s="16"/>
       <c r="M17" s="71"/>
@@ -17386,8 +17452,8 @@
       <c r="F18" s="59"/>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="109"/>
       <c r="K18" s="6"/>
       <c r="L18" s="16"/>
       <c r="M18" s="71"/>
@@ -17896,18 +17962,18 @@
         <v>28</v>
       </c>
       <c r="B20" s="63"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="94" t="s">
+      <c r="K20" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="94"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="23"/>
       <c r="N20" s="10"/>
       <c r="O20" s="11"/>
@@ -18165,8 +18231,8 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="23"/>
       <c r="N21" s="10"/>
       <c r="O21" s="11"/>
@@ -20521,8 +20587,25 @@
       <c r="D33" s="51"/>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K33"/>
+  <autoFilter ref="K1:K33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="33">
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="B8:B9"/>
@@ -20539,45 +20622,28 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="K11:K15">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K19">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15 G17:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15 G17:G18" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$B$22:$B$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K15 K17:K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K15 K17:K18" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$B$29:$B$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11:M15 M17:M18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11:M15 M17:M18" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$B$26:$B$27</formula1>
     </dataValidation>
   </dataValidations>
